--- a/_plugins/echarts-210718/timeline.xlsx
+++ b/_plugins/echarts-210718/timeline.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>日期</t>
   </si>
@@ -58,6 +58,9 @@
     <t>发布千年轮</t>
   </si>
   <si>
+    <t>键道3→键道6</t>
+  </si>
+  <si>
     <t>新增字根“士”</t>
   </si>
   <si>
@@ -115,10 +118,10 @@
     <t>发布小小星空v1.0.0</t>
   </si>
   <si>
-    <t>发布小小星空v1.0.1</t>
-  </si>
-  <si>
-    <t>发布小小星空v1.0.2</t>
+    <t>项目迁移至Github</t>
+  </si>
+  <si>
+    <t>发布小小星空v1.0.3</t>
   </si>
 </sst>
 </file>
@@ -127,11 +130,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +143,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,23 +158,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,8 +180,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,90 +280,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,67 +296,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,115 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,45 +490,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -568,6 +529,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,9 +579,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,153 +592,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1067,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1089,12 +1088,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>42972</v>
       </c>
       <c r="B2">
@@ -1105,7 +1104,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>42987</v>
       </c>
       <c r="B3">
@@ -1116,7 +1115,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>42990</v>
       </c>
       <c r="B4">
@@ -1127,7 +1126,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>42992</v>
       </c>
       <c r="B5">
@@ -1138,7 +1137,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>43000</v>
       </c>
       <c r="B6">
@@ -1146,7 +1145,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>43001</v>
       </c>
       <c r="B7">
@@ -1154,7 +1153,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>43002</v>
       </c>
       <c r="B8">
@@ -1162,7 +1161,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>43003</v>
       </c>
       <c r="B9">
@@ -1170,7 +1169,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>43004</v>
       </c>
       <c r="B10">
@@ -1178,7 +1177,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>43005</v>
       </c>
       <c r="B11">
@@ -1186,7 +1185,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>43006</v>
       </c>
       <c r="B12">
@@ -1194,7 +1193,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>43008</v>
       </c>
       <c r="B13">
@@ -1202,7 +1201,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>43009</v>
       </c>
       <c r="B14">
@@ -1210,7 +1209,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>43015</v>
       </c>
       <c r="B15">
@@ -1221,7 +1220,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>43020</v>
       </c>
       <c r="B16">
@@ -1232,7 +1231,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>43022</v>
       </c>
       <c r="B17">
@@ -1243,7 +1242,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>43024</v>
       </c>
       <c r="B18">
@@ -1254,7 +1253,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>43025</v>
       </c>
       <c r="B19">
@@ -1265,7 +1264,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>43026</v>
       </c>
       <c r="B20">
@@ -1273,7 +1272,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>43030</v>
       </c>
       <c r="B21">
@@ -1281,7 +1280,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>43032</v>
       </c>
       <c r="B22">
@@ -1289,7 +1288,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>43033</v>
       </c>
       <c r="B23">
@@ -1297,7 +1296,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>43034</v>
       </c>
       <c r="B24">
@@ -1305,7 +1304,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>43035</v>
       </c>
       <c r="B25">
@@ -1313,7 +1312,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>43036</v>
       </c>
       <c r="B26">
@@ -1321,7 +1320,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>43038</v>
       </c>
       <c r="B27">
@@ -1329,7 +1328,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>43039</v>
       </c>
       <c r="B28">
@@ -1337,7 +1336,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>43040</v>
       </c>
       <c r="B29">
@@ -1345,7 +1344,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>43042</v>
       </c>
       <c r="B30">
@@ -1353,7 +1352,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>43044</v>
       </c>
       <c r="B31">
@@ -1361,7 +1360,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>43045</v>
       </c>
       <c r="B32">
@@ -1369,7 +1368,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>43046</v>
       </c>
       <c r="B33">
@@ -1377,7 +1376,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>43047</v>
       </c>
       <c r="B34">
@@ -1385,7 +1384,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>43048</v>
       </c>
       <c r="B35">
@@ -1393,7 +1392,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>43050</v>
       </c>
       <c r="B36">
@@ -1401,7 +1400,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>43053</v>
       </c>
       <c r="B37">
@@ -1409,7 +1408,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>43056</v>
       </c>
       <c r="B38">
@@ -1417,7 +1416,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>43058</v>
       </c>
       <c r="B39">
@@ -1427,133 +1426,133 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B40">
+        <v>105602</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>43065</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>105448</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1">
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>43067</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>105539</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>43068</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>105600</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1">
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>43069</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>105620</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>43073</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>105741</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>43074</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>105850</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
         <v>43082</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>106130</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>43086</v>
-      </c>
-      <c r="B47">
-        <v>106177</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>43092</v>
+      <c r="A48" s="2">
+        <v>43086</v>
       </c>
       <c r="B48">
-        <v>106236</v>
+        <v>106177</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>43092</v>
+      </c>
+      <c r="B49">
+        <v>106236</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>43095</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>106273</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1">
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>43097</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>106309</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1">
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>43108</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>106333</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1">
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>43112</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>106347</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
         <v>43116</v>
-      </c>
-      <c r="B53">
-        <v>106348</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>43117</v>
       </c>
       <c r="B54">
         <v>106348</v>
@@ -1562,471 +1561,493 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B55">
+        <v>106348</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>43120</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>106427</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1">
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>43122</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>106437</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
         <v>43123</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>106440</v>
       </c>
-      <c r="C57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1">
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>43125</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>106467</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1">
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>43132</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>106496</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1">
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>43138</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>106528</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1">
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>43144</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>106577</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1">
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>43155</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>106616</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1">
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>43168</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>124825</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1">
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>43179</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>124874</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
         <v>43191</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>106726</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>43206</v>
-      </c>
-      <c r="B66">
-        <v>106896</v>
       </c>
       <c r="C66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B67">
+        <v>106896</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>43219</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>107142</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1">
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>43224</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>107223</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
         <v>43233</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>105988</v>
       </c>
-      <c r="C69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1">
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>43248</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>106149</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1">
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>43254</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>106280</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1">
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>43261</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>106637</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1">
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>43268</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>106834</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
         <v>43282</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>109199</v>
-      </c>
-      <c r="C74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>43297</v>
-      </c>
-      <c r="B75">
-        <v>109388</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B76">
+        <v>109388</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>43320</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>110109</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
         <v>43326</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>110147</v>
       </c>
-      <c r="C77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1">
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>43332</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>110296</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1">
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>43338</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>110538</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1">
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>43347</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>110680</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1">
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>43352</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>110775</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1">
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>43400</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>111536</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1">
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>43409</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>111893</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1">
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>43423</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>112102</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1">
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>43430</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>112253</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1">
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>43437</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>112377</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1">
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>43443</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>112498</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1">
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>43451</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>112544</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1">
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>43474</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>112729</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1">
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>43518</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>112877</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1">
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>43535</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>113079</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
         <v>43588</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>113255</v>
       </c>
-      <c r="C92" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1">
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>43590</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>113629</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1">
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>43906</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>114976</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
         <v>43935</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>115124</v>
-      </c>
-      <c r="C95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>43942</v>
-      </c>
-      <c r="B96">
-        <v>115212</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>43985</v>
+      <c r="A97" s="2">
+        <v>43942</v>
       </c>
       <c r="B97">
-        <v>119573</v>
+        <v>115212</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B98">
+        <v>119573</v>
+      </c>
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>44014</v>
-      </c>
-      <c r="B98">
-        <v>119576</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>44028</v>
       </c>
       <c r="B99">
         <v>119576</v>
       </c>
-      <c r="C99" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B100">
+        <v>119576</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>44051</v>
-      </c>
-      <c r="B100">
-        <v>120090</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>44060</v>
       </c>
       <c r="B101">
         <v>120090</v>
       </c>
-      <c r="C101" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B102">
+        <v>120090</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>44083</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>120334</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1">
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>44093</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>120394</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
         <v>44178</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>120539</v>
-      </c>
-      <c r="C104" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>44321</v>
-      </c>
-      <c r="B105">
-        <v>120640</v>
       </c>
       <c r="C105" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B106">
+        <v>120640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
         <v>44395</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>120752</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B108">
+        <v>120872</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1" display="https://echarts.apache.org/zh/spreadsheet.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
